--- a/covid19/data_covid19_demographics_2021-01-13.xlsx
+++ b/covid19/data_covid19_demographics_2021-01-13.xlsx
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="N20">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="N22">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="N23">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="N25">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
